--- a/Results/UVC_mean_fluorescence_pvals_old skin_V2.xlsx
+++ b/Results/UVC_mean_fluorescence_pvals_old skin_V2.xlsx
@@ -425,10 +425,10 @@
         <v>7.14967570209271</v>
       </c>
       <c r="F2" t="n">
-        <v>0.933856854750202</v>
+        <v>0.933848796388427</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999278413847567</v>
+        <v>0.999278463024743</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +448,10 @@
         <v>4.9035871030018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.986456340081723</v>
+        <v>0.986461331176576</v>
       </c>
       <c r="G3" t="n">
-        <v>0.999278413847567</v>
+        <v>0.999278463024743</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>9.63552167409271</v>
       </c>
       <c r="F4" t="n">
-        <v>0.279978951463748</v>
+        <v>0.279927882507025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.559957902927496</v>
+        <v>0.559855765014051</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>6.63065455981999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.987534648727479</v>
+        <v>0.987528017028627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.999278413847567</v>
+        <v>0.999278463024743</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +517,10 @@
         <v>4.34979359588489</v>
       </c>
       <c r="F6" t="n">
-        <v>0.913611139913274</v>
+        <v>0.913654229505697</v>
       </c>
       <c r="G6" t="n">
-        <v>0.999278413847567</v>
+        <v>0.999278463024743</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         <v>6.27580337061216</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999278413847567</v>
+        <v>0.999278463024743</v>
       </c>
       <c r="G7" t="n">
-        <v>0.999278413847567</v>
+        <v>0.999278463024743</v>
       </c>
     </row>
     <row r="8">
@@ -563,10 +563,10 @@
         <v>10.8712393208849</v>
       </c>
       <c r="F8" t="n">
-        <v>0.11401259580117</v>
+        <v>0.113809840403332</v>
       </c>
       <c r="G8" t="n">
-        <v>0.273630229922808</v>
+        <v>0.273143616967998</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>13.1193540007031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0106575543876044</v>
+        <v>0.0107017627121421</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0319726631628132</v>
+        <v>0.0321052881364262</v>
       </c>
     </row>
     <row r="10">
@@ -609,10 +609,10 @@
         <v>8.66086930239969</v>
       </c>
       <c r="F10" t="n">
-        <v>0.61822466409116</v>
+        <v>0.618273325808725</v>
       </c>
       <c r="G10" t="n">
-        <v>0.999278413847567</v>
+        <v>0.999278463024743</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
         <v>13.9475478713997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00534386737306924</v>
+        <v>0.00534105561166287</v>
       </c>
       <c r="G11" t="n">
-        <v>0.021375469492277</v>
+        <v>0.0213642224466515</v>
       </c>
     </row>
     <row r="12">
@@ -655,10 +655,10 @@
         <v>21.1854899732179</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000000112150655540155</v>
+        <v>0.000000122246982647845</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000000672903933240931</v>
+        <v>0.000000733481895887067</v>
       </c>
     </row>
     <row r="13">
@@ -678,10 +678,10 @@
         <v>24.059013984127</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000000000536743871570877</v>
+        <v>0.0000000019495934866498</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00000000644092645885053</v>
+        <v>0.0000000233951218397976</v>
       </c>
     </row>
   </sheetData>

--- a/Results/UVC_mean_fluorescence_pvals_old skin_V2.xlsx
+++ b/Results/UVC_mean_fluorescence_pvals_old skin_V2.xlsx
@@ -425,10 +425,10 @@
         <v>7.14967570209271</v>
       </c>
       <c r="F2" t="n">
-        <v>0.933848796388427</v>
+        <v>0.933859130731175</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999278463024743</v>
+        <v>0.999278372715766</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +448,10 @@
         <v>4.9035871030018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.986461331176576</v>
+        <v>0.986460863411981</v>
       </c>
       <c r="G3" t="n">
-        <v>0.999278463024743</v>
+        <v>0.999278372715766</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>9.63552167409271</v>
       </c>
       <c r="F4" t="n">
-        <v>0.279927882507025</v>
+        <v>0.279997486323801</v>
       </c>
       <c r="G4" t="n">
-        <v>0.559855765014051</v>
+        <v>0.559994972647602</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.853861327363637</v>
+        <v>0.853861327363636</v>
       </c>
       <c r="D5" t="n">
         <v>-4.92293190509271</v>
@@ -494,10 +494,10 @@
         <v>6.63065455981999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.987528017028627</v>
+        <v>0.987538610187964</v>
       </c>
       <c r="G5" t="n">
-        <v>0.999278463024743</v>
+        <v>0.999278372715766</v>
       </c>
     </row>
     <row r="6">
@@ -514,13 +514,13 @@
         <v>-7.37672284243034</v>
       </c>
       <c r="E6" t="n">
-        <v>4.34979359588489</v>
+        <v>4.34979359588488</v>
       </c>
       <c r="F6" t="n">
-        <v>0.913654229505697</v>
+        <v>0.913679841367665</v>
       </c>
       <c r="G6" t="n">
-        <v>0.999278463024743</v>
+        <v>0.999278372715766</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         <v>6.27580337061216</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999278463024743</v>
+        <v>0.999278372715766</v>
       </c>
       <c r="G7" t="n">
-        <v>0.999278463024743</v>
+        <v>0.999278372715766</v>
       </c>
     </row>
     <row r="8">
@@ -563,10 +563,10 @@
         <v>10.8712393208849</v>
       </c>
       <c r="F8" t="n">
-        <v>0.113809840403332</v>
+        <v>0.113959534209791</v>
       </c>
       <c r="G8" t="n">
-        <v>0.273143616967998</v>
+        <v>0.273502882103498</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>13.1193540007031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0107017627121421</v>
+        <v>0.0106131894949477</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0321052881364262</v>
+        <v>0.0318395684848432</v>
       </c>
     </row>
     <row r="10">
@@ -606,13 +606,13 @@
         <v>-3.28572980767242</v>
       </c>
       <c r="E10" t="n">
-        <v>8.66086930239969</v>
+        <v>8.6608693023997</v>
       </c>
       <c r="F10" t="n">
-        <v>0.618273325808725</v>
+        <v>0.61826327836143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.999278463024743</v>
+        <v>0.999278372715766</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
         <v>13.9475478713997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00534105561166287</v>
+        <v>0.0053971437327931</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0213642224466515</v>
+        <v>0.0215885749311724</v>
       </c>
     </row>
     <row r="12">
@@ -655,10 +655,10 @@
         <v>21.1854899732179</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000000122246982647845</v>
+        <v>0.000000175536620572458</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000000733481895887067</v>
+        <v>0.00000105321972343475</v>
       </c>
     </row>
     <row r="13">
@@ -678,10 +678,10 @@
         <v>24.059013984127</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0000000019495934866498</v>
+        <v>0.0000000022856876391586</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0000000233951218397976</v>
+        <v>0.0000000274282516699031</v>
       </c>
     </row>
   </sheetData>
